--- a/libmasys/excel/Manuales.xlsx
+++ b/libmasys/excel/Manuales.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="368">
   <si>
     <t>Titulo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>Javier Fernández Martínez</t>
   </si>
   <si>
+    <t>UGR</t>
+  </si>
+  <si>
     <t>MA E 2</t>
   </si>
   <si>
@@ -580,53 +583,545 @@
     <t>MA E 28</t>
   </si>
   <si>
+    <t>Premio progreso: cultura, educación, nuevas tecnologías y turismo</t>
+  </si>
+  <si>
+    <t>Rafael Toledado Redondo</t>
+  </si>
+  <si>
     <t>MA E 29</t>
   </si>
   <si>
+    <t>Premio progreso: empleo, medio ambiente, vivienda y turismo</t>
+  </si>
+  <si>
     <t>MA E 30</t>
   </si>
   <si>
+    <t>Premio progreso: deportes, igualdad, juventud y servicios sociales</t>
+  </si>
+  <si>
     <t>MA E 31</t>
   </si>
   <si>
+    <t>Democracia participativa</t>
+  </si>
+  <si>
+    <t>Desire Villegas Ordonez</t>
+  </si>
+  <si>
+    <t>Diputación de Granada</t>
+  </si>
+  <si>
     <t>MA E 32</t>
   </si>
   <si>
+    <t>Guía de la concejalía de educación</t>
+  </si>
+  <si>
+    <t>Myriam Fernández-Coronado González</t>
+  </si>
+  <si>
+    <t>Federación española de municipios y provincias</t>
+  </si>
+  <si>
     <t>MA E 33</t>
   </si>
   <si>
+    <t>Gestión por procesos en instalaciones deportivas</t>
+  </si>
+  <si>
+    <t>Autores varios</t>
+  </si>
+  <si>
     <t>MA E 34</t>
   </si>
   <si>
+    <t>Manual de servicios para reinventar las administraciones públicas desde la mutua confianza con los ciudadanos</t>
+  </si>
+  <si>
     <t>MA E 35</t>
   </si>
   <si>
+    <t>El nuevo arte de gobernar las ciudades y las regiones</t>
+  </si>
+  <si>
     <t>MA E 36</t>
   </si>
   <si>
+    <t>La articulación jurídica de la política regional comunitaria</t>
+  </si>
+  <si>
+    <t>J. Alejandro Valle Gálvez</t>
+  </si>
+  <si>
     <t>MA E 37</t>
   </si>
   <si>
+    <t>Guía de la música sinfónica</t>
+  </si>
+  <si>
+    <t>Francois René Tranchefort</t>
+  </si>
+  <si>
+    <t>Alianza</t>
+  </si>
+  <si>
     <t>MA E 38</t>
   </si>
   <si>
+    <t>Cómo aprende el cerebro: las claves para la educación</t>
+  </si>
+  <si>
+    <t>Sarah Jayne Blakemore</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
     <t>MA E 39</t>
   </si>
   <si>
+    <t>Tabaquismo, una guía para el autotratamiento</t>
+  </si>
+  <si>
+    <t>Jesús Gil Roales Nieto</t>
+  </si>
+  <si>
     <t>MA E 40</t>
   </si>
   <si>
+    <t>Cuidados y nutrición del niño</t>
+  </si>
+  <si>
+    <t>María José Aguilar Cordero</t>
+  </si>
+  <si>
     <t>MA E 41</t>
   </si>
   <si>
+    <t>Manual de técnicas y valoración en enfermería infantil</t>
+  </si>
+  <si>
     <t>MA E 42</t>
+  </si>
+  <si>
+    <t>Manual básico de planificación estratégica urbana y territorial</t>
+  </si>
+  <si>
+    <t>Rafael Merinero Rodríguez</t>
+  </si>
+  <si>
+    <t>MA E 43</t>
+  </si>
+  <si>
+    <t>Los afrodismos naturales</t>
+  </si>
+  <si>
+    <t>Richard Alderman</t>
+  </si>
+  <si>
+    <t>Pastanaga series</t>
+  </si>
+  <si>
+    <t>MA E 44</t>
+  </si>
+  <si>
+    <t>Guía práctica de la energía</t>
+  </si>
+  <si>
+    <t>Instituto para la diversificación y ahorro de la energía</t>
+  </si>
+  <si>
+    <t>MA E 45</t>
+  </si>
+  <si>
+    <t>Introducción a la química</t>
+  </si>
+  <si>
+    <t>Hazel Rossotti</t>
+  </si>
+  <si>
+    <t>Salvat</t>
+  </si>
+  <si>
+    <t>MA E 46</t>
+  </si>
+  <si>
+    <t>Introducción a las matemáticas</t>
+  </si>
+  <si>
+    <t>A.N. Whitehead</t>
+  </si>
+  <si>
+    <t>Emecé</t>
+  </si>
+  <si>
+    <t>MA E 47</t>
+  </si>
+  <si>
+    <t>Guía terapéutica de urgencia</t>
+  </si>
+  <si>
+    <t>B. Lorenzo Velázquez</t>
+  </si>
+  <si>
+    <t>Oteo</t>
+  </si>
+  <si>
+    <t>MA E 48</t>
+  </si>
+  <si>
+    <t>Curación del reumatismo</t>
+  </si>
+  <si>
+    <t>N. Capo</t>
+  </si>
+  <si>
+    <t>Cuatro caminos</t>
+  </si>
+  <si>
+    <t>MA E 49</t>
+  </si>
+  <si>
+    <t>El médico de cabecera: cómo no matar a sus hijos</t>
+  </si>
+  <si>
+    <t>Elena Arnedo Soriano</t>
+  </si>
+  <si>
+    <t>MA E 50</t>
+  </si>
+  <si>
+    <t>Crónicas de ajedrez</t>
+  </si>
+  <si>
+    <t>Arrabal</t>
+  </si>
+  <si>
+    <t>Alta fulla</t>
+  </si>
+  <si>
+    <t>MA E 51</t>
+  </si>
+  <si>
+    <t>Guía del doctor para el mejor ciudado de la salud</t>
+  </si>
+  <si>
+    <t>Michael Oppenheim</t>
+  </si>
+  <si>
+    <t>Pirámide</t>
+  </si>
+  <si>
+    <t>MA E 52</t>
+  </si>
+  <si>
+    <t>Guía de drogas</t>
+  </si>
+  <si>
+    <t>Antonio Escohotado</t>
+  </si>
+  <si>
+    <t>Omnibus Mondadori</t>
+  </si>
+  <si>
+    <t>MA E 53</t>
+  </si>
+  <si>
+    <t>Constitución española</t>
+  </si>
+  <si>
+    <t>MA E 54</t>
+  </si>
+  <si>
+    <t>Remedios caseros para niños</t>
+  </si>
+  <si>
+    <t>Magazine Health Books</t>
+  </si>
+  <si>
+    <t>MA E 55</t>
+  </si>
+  <si>
+    <t>Lo que usted podría decir a su paciente</t>
+  </si>
+  <si>
+    <t>Ciril Rózman</t>
+  </si>
+  <si>
+    <t>Coleccionable</t>
+  </si>
+  <si>
+    <t>MA E 56</t>
+  </si>
+  <si>
+    <t>Instrumentos de gestión territorial para la toma de decisiones en el medio local</t>
+  </si>
+  <si>
+    <t>José Luis Calvo</t>
+  </si>
+  <si>
+    <t>MA E 57</t>
+  </si>
+  <si>
+    <t>La gestión estratégica de las ciudades</t>
+  </si>
+  <si>
+    <t>MA E 58</t>
+  </si>
+  <si>
+    <t>Circuitos digitales programables por el usuario</t>
+  </si>
+  <si>
+    <t>MA E 59</t>
+  </si>
+  <si>
+    <t>Guía de la música de cámara</t>
+  </si>
+  <si>
+    <t>MA E 60</t>
+  </si>
+  <si>
+    <t>Los síntomas de la mujer</t>
+  </si>
+  <si>
+    <t>Ivank Strausz</t>
+  </si>
+  <si>
+    <t>Vergara</t>
+  </si>
+  <si>
+    <t>MA E 61</t>
+  </si>
+  <si>
+    <t>Cómo educar en la primera infancia</t>
+  </si>
+  <si>
+    <t>Patricia Henderson Shimm</t>
+  </si>
+  <si>
+    <t>Medici</t>
+  </si>
+  <si>
+    <t>MA E 62</t>
+  </si>
+  <si>
+    <t>Técnica y práctica paso a paso para pintar desde el primer momento</t>
+  </si>
+  <si>
+    <t>María Fernánda Canal</t>
+  </si>
+  <si>
+    <t>Parramón</t>
+  </si>
+  <si>
+    <t>MA E 63</t>
+  </si>
+  <si>
+    <t>Ejercicios terapéuticos chinos</t>
+  </si>
+  <si>
+    <t>República popular china</t>
+  </si>
+  <si>
+    <t>Ibis</t>
+  </si>
+  <si>
+    <t>MA E 64</t>
+  </si>
+  <si>
+    <t>Primeros auxilios para niños y bebes</t>
+  </si>
+  <si>
+    <t>Thomas Seiler</t>
+  </si>
+  <si>
+    <t>Edaf</t>
+  </si>
+  <si>
+    <t>MA E 65</t>
+  </si>
+  <si>
+    <t>La edad de las preguntas</t>
+  </si>
+  <si>
+    <t>Clasina Kraan</t>
+  </si>
+  <si>
+    <t>MA E 66</t>
+  </si>
+  <si>
+    <t>Profesor de ti mismo</t>
+  </si>
+  <si>
+    <t>Bernabé Tierno</t>
+  </si>
+  <si>
+    <t>MA E 67</t>
+  </si>
+  <si>
+    <t>La salud de tu hijo</t>
+  </si>
+  <si>
+    <t>José Ignacio de Arana</t>
+  </si>
+  <si>
+    <t>MA E 68</t>
+  </si>
+  <si>
+    <t>Peligro en casa</t>
+  </si>
+  <si>
+    <t>Ramón Sánchez Ocaña</t>
+  </si>
+  <si>
+    <t>MA E 69</t>
+  </si>
+  <si>
+    <t>La obsesión por adelgazar</t>
+  </si>
+  <si>
+    <t>Santiago Martínez Fornés</t>
+  </si>
+  <si>
+    <t>MA E 70</t>
+  </si>
+  <si>
+    <t>La articulación del derecho comunitario y del derecho interno</t>
+  </si>
+  <si>
+    <t>Antonio La Pergola</t>
+  </si>
+  <si>
+    <t>MA E 71</t>
+  </si>
+  <si>
+    <t>Reflexión centroamericana</t>
+  </si>
+  <si>
+    <t>Yago Pico de Coaña y de Valicourt</t>
+  </si>
+  <si>
+    <t>MA E 72</t>
+  </si>
+  <si>
+    <t>Evolución jurisprudencial en materia de acceso de los particulares a la jurisdicción comunitaria</t>
+  </si>
+  <si>
+    <t>José Carlos Mointinho de Almeida</t>
+  </si>
+  <si>
+    <t>MA E 73</t>
+  </si>
+  <si>
+    <t>Presente y futuro del tribunal internacional de justicia</t>
+  </si>
+  <si>
+    <t>José María Ruda</t>
+  </si>
+  <si>
+    <t>MA E 74</t>
+  </si>
+  <si>
+    <t>La circulación de los trabajadores por cuenta ajena en la jurisprudencia comunitaria</t>
+  </si>
+  <si>
+    <t>G. Federico Mancini</t>
+  </si>
+  <si>
+    <t>MA E 75</t>
+  </si>
+  <si>
+    <t>Europa ante el siglo XXI</t>
+  </si>
+  <si>
+    <t>Felipe Sahagún</t>
+  </si>
+  <si>
+    <t>MA E 76</t>
+  </si>
+  <si>
+    <t>Aspectos jurídicos actuales de la protección del medio ambiente en la Comunidad Europea, y en especial, la contribución de su Tribunal de justicia</t>
+  </si>
+  <si>
+    <t>Manuel Díez de Velasco Vallejo</t>
+  </si>
+  <si>
+    <t>MA E 77</t>
+  </si>
+  <si>
+    <t>La acción de la Comunidad Europea y de los estados miembros en la Crisis del Golfo</t>
+  </si>
+  <si>
+    <t>Fernando Mariño Menéndez</t>
+  </si>
+  <si>
+    <t>MA E 78</t>
+  </si>
+  <si>
+    <t>Aspectos jurídicos de la primera ampliación de la Unión Europea</t>
+  </si>
+  <si>
+    <t>Jean Pierre Puissochet</t>
+  </si>
+  <si>
+    <t>MA E 79</t>
+  </si>
+  <si>
+    <t>El GATT post Ronda de Uruguay</t>
+  </si>
+  <si>
+    <t>Juán Antonio Castillo Urrutia</t>
+  </si>
+  <si>
+    <t>MA E 80</t>
+  </si>
+  <si>
+    <t>La participación del parlamento europeo en la actividad legislativa comunitaria</t>
+  </si>
+  <si>
+    <t>Augusto Piqueras García</t>
+  </si>
+  <si>
+    <t>MA E 81</t>
+  </si>
+  <si>
+    <t>Guía de herramientas y buenas prácticas para la sostenibilidad rural</t>
+  </si>
+  <si>
+    <t>GDR Alpujarra-Sierra Nevada</t>
+  </si>
+  <si>
+    <t>MA E 82</t>
+  </si>
+  <si>
+    <t>Recetas para novatos</t>
+  </si>
+  <si>
+    <t>Laura Donada</t>
+  </si>
+  <si>
+    <t>Santillana</t>
+  </si>
+  <si>
+    <t>MA E 83</t>
+  </si>
+  <si>
+    <t>Tenemos que hablar</t>
+  </si>
+  <si>
+    <t>José Manuel Aguilar</t>
+  </si>
+  <si>
+    <t>MA E 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -637,6 +1132,9 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -657,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -666,6 +1164,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +1190,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.29"/>
+    <col customWidth="1" min="1" max="1" width="51.43"/>
     <col customWidth="1" min="2" max="2" width="32.14"/>
   </cols>
   <sheetData>
@@ -1487,101 +1991,101 @@
         <v>1997.0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D65" s="2">
         <v>1996.0</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D66" s="2">
         <v>1997.0</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D67" s="2">
         <v>1997.0</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" s="2">
         <v>1995.0</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D69" s="2">
         <v>2010.0</v>
@@ -1593,55 +2097,55 @@
         <v>11</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D70" s="2">
         <v>2000.0</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D71" s="2">
         <v>2009.0</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D72" s="2">
         <v>2010.0</v>
@@ -1653,15 +2157,15 @@
         <v>11</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="2">
         <v>2010.0</v>
@@ -1673,95 +2177,95 @@
         <v>11</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D74" s="2">
         <v>1992.0</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2">
         <v>2008.0</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D76" s="2">
         <v>2005.0</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D77" s="2">
         <v>1991.0</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D78" s="2">
         <v>2008.0</v>
@@ -1773,15 +2277,15 @@
         <v>11</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79" s="2">
         <v>2008.0</v>
@@ -1793,15 +2297,15 @@
         <v>11</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D80" s="2">
         <v>2009.0</v>
@@ -1813,15 +2317,15 @@
         <v>11</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D81" s="2">
         <v>2009.0</v>
@@ -1833,15 +2337,15 @@
         <v>11</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D82" s="2">
         <v>2007.0</v>
@@ -1853,35 +2357,35 @@
         <v>11</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D83" s="2">
         <v>2001.0</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D84" s="2">
         <v>2009.0</v>
@@ -1893,15 +2397,15 @@
         <v>11</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D85" s="2">
         <v>0.0</v>
@@ -1913,335 +2417,1230 @@
         <v>11</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D86" s="2">
         <v>1997.0</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D87" s="2">
         <v>1992.0</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D88" s="2">
         <v>1986.0</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D89" s="2">
         <v>1992.0</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D90" s="2">
         <v>1990.0</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="A91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F92" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2011.0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="F94" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2012.0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="A96" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2005.0</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="A97" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F97" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2007.0</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F98" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1990.0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F99" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="A100" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1998.0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2006.0</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="F101" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H101" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1992.0</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2010.0</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1979.0</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2004.0</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1985.0</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1944.0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1976.0</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1976.0</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1971.0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1984.0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1992.0</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1990.0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="F105" s="2"/>
-      <c r="H105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="F106" s="2"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107">
-      <c r="F107" s="2"/>
-      <c r="H107" s="2"/>
-    </row>
-    <row r="108">
-      <c r="F108" s="2"/>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109">
-      <c r="F109" s="2"/>
-      <c r="H109" s="2"/>
-    </row>
-    <row r="110">
-      <c r="F110" s="2"/>
-      <c r="H110" s="2"/>
-    </row>
-    <row r="111">
-      <c r="F111" s="2"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112">
-      <c r="F112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113">
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="H114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="H115" s="2"/>
-    </row>
-    <row r="116">
-      <c r="H116" s="2"/>
+      <c r="D116" s="2">
+        <v>1998.0</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="117">
-      <c r="H117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1995.0</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="118">
-      <c r="H118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="119">
-      <c r="H119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="120">
-      <c r="H120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2002.0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="121">
-      <c r="H121" s="2"/>
+      <c r="A121" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1994.0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1995.0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1998.0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1998.0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1998.0</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1990.0</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1996.0</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1995.0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1995.0</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1995.0</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1996.0</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1990.0</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1991.0</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1990.0</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1990.0</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1992.0</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1991.0</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1991.0</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1996.0</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="4">
+        <v>2009.0</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4">
+        <v>2009.0</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
